--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/7122_NguyenHK_MACBOOK1/code/nodeapp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/7122_NguyenHK_MACBOOK1/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B607E480-9E18-4A45-8A6F-914C3E23D371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095491B1-8D77-384D-9E95-0F48A735F000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="7200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20900" windowHeight="15740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="87">
   <si>
     <t>Tên địa điểm</t>
   </si>
   <si>
-    <t>Thời tiết</t>
-  </si>
-  <si>
     <t>Cấp độ dịch</t>
   </si>
   <si>
@@ -60,9 +57,6 @@
     <t>Thành phố</t>
   </si>
   <si>
-    <t>23°C</t>
-  </si>
-  <si>
     <t>Moonlight</t>
   </si>
   <si>
@@ -97,16 +91,218 @@
   </si>
   <si>
     <t>Nhà Hàng</t>
+  </si>
+  <si>
+    <t>Chùa Linh Ứng</t>
+  </si>
+  <si>
+    <t>7h</t>
+  </si>
+  <si>
+    <t>Chùa</t>
+  </si>
+  <si>
+    <t>Bún mắm Trần Kế Xương</t>
+  </si>
+  <si>
+    <t>Hải sản bà Thôi</t>
+  </si>
+  <si>
+    <t>17h30</t>
+  </si>
+  <si>
+    <t>22h</t>
+  </si>
+  <si>
+    <t>Đặc sản Trần</t>
+  </si>
+  <si>
+    <t>9h</t>
+  </si>
+  <si>
+    <t>Thìa Gỗ Restaurant</t>
+  </si>
+  <si>
+    <t>10h</t>
+  </si>
+  <si>
+    <t>21h</t>
+  </si>
+  <si>
+    <t>Mộc Seafood</t>
+  </si>
+  <si>
+    <t>10h30</t>
+  </si>
+  <si>
+    <t>23h</t>
+  </si>
+  <si>
+    <t>Quán Mậu </t>
+  </si>
+  <si>
+    <t>19h</t>
+  </si>
+  <si>
+    <t>Quán Bà Hường</t>
+  </si>
+  <si>
+    <t>Quán Quỳnh Đại Lộc</t>
+  </si>
+  <si>
+    <t>15h</t>
+  </si>
+  <si>
+    <t>Citron Restaurant</t>
+  </si>
+  <si>
+    <t>6h30</t>
+  </si>
+  <si>
+    <t>La Maison 1888</t>
+  </si>
+  <si>
+    <t>8h</t>
+  </si>
+  <si>
+    <t>22h30</t>
+  </si>
+  <si>
+    <t>The Grill</t>
+  </si>
+  <si>
+    <t>18h</t>
+  </si>
+  <si>
+    <t>Blue Whale Restaurant</t>
+  </si>
+  <si>
+    <t>9h30</t>
+  </si>
+  <si>
+    <t>13h30</t>
+  </si>
+  <si>
+    <t>miễn phí</t>
+  </si>
+  <si>
+    <t>6h20</t>
+  </si>
+  <si>
+    <t>Bánh xèo tôm nhảy Năm Hiền</t>
+  </si>
+  <si>
+    <t>Bún chả cá Hờn</t>
+  </si>
+  <si>
+    <t>6h</t>
+  </si>
+  <si>
+    <t>Bún thịt nướng Cô Sáu</t>
+  </si>
+  <si>
+    <t>14h</t>
+  </si>
+  <si>
+    <t>Ốc hút Cây Bàng</t>
+  </si>
+  <si>
+    <t>Bánh canh bà Thu</t>
+  </si>
+  <si>
+    <t>Bánh cuốn Tiến Hưng</t>
+  </si>
+  <si>
+    <t>Quán Bà Bé</t>
+  </si>
+  <si>
+    <t>Phở Lân Béo </t>
+  </si>
+  <si>
+    <t>Mì Quảng Bà Mua</t>
+  </si>
+  <si>
+    <t>Bún chả cá Bà Phiến</t>
+  </si>
+  <si>
+    <t>Bảo tàng 3D Art</t>
+  </si>
+  <si>
+    <t>Bảo tàng</t>
+  </si>
+  <si>
+    <t>Bảo tàng Úp ngược</t>
+  </si>
+  <si>
+    <t>130000/người</t>
+  </si>
+  <si>
+    <t>200000/người</t>
+  </si>
+  <si>
+    <t>Bảo tàng sáp</t>
+  </si>
+  <si>
+    <t>17h</t>
+  </si>
+  <si>
+    <t>100000/người</t>
+  </si>
+  <si>
+    <t>Bảo tàng Chăm</t>
+  </si>
+  <si>
+    <t>60000/người</t>
+  </si>
+  <si>
+    <t>Bảo tàng tre trúc</t>
+  </si>
+  <si>
+    <t>Bảo tàng Đà Nẵng</t>
+  </si>
+  <si>
+    <t>20000/người</t>
+  </si>
+  <si>
+    <t>Bảo tàng Phật học</t>
+  </si>
+  <si>
+    <t> Bảo tàng Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>11h</t>
+  </si>
+  <si>
+    <t>Bảo tàng Hoàng Sa</t>
+  </si>
+  <si>
+    <t>Bảo tàng Đồng Đình</t>
+  </si>
+  <si>
+    <t>Quán Cơm Nhà Nấu</t>
+  </si>
+  <si>
+    <t>65000/2 người</t>
+  </si>
+  <si>
+    <t>20h</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -138,9 +334,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,135 +618,906 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:J6"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="20.5" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" t="s">
+        <v>69</v>
+      </c>
+      <c r="I29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" t="s">
+        <v>72</v>
+      </c>
+      <c r="G30" t="s">
+        <v>73</v>
+      </c>
+      <c r="I30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G31" t="s">
+        <v>75</v>
+      </c>
+      <c r="I31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" t="s">
+        <v>52</v>
+      </c>
+      <c r="I32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" t="s">
+        <v>72</v>
+      </c>
+      <c r="G33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" t="s">
+        <v>72</v>
+      </c>
+      <c r="G34" t="s">
+        <v>52</v>
+      </c>
+      <c r="I34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
         <v>11</v>
       </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" t="s">
-        <v>23</v>
+      <c r="F35" t="s">
+        <v>81</v>
+      </c>
+      <c r="G35" t="s">
+        <v>52</v>
+      </c>
+      <c r="I35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" t="s">
+        <v>72</v>
+      </c>
+      <c r="G36" t="s">
+        <v>52</v>
+      </c>
+      <c r="I36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" t="s">
+        <v>72</v>
+      </c>
+      <c r="G37" t="s">
+        <v>78</v>
+      </c>
+      <c r="I37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" t="s">
+        <v>86</v>
+      </c>
+      <c r="G38" t="s">
+        <v>85</v>
+      </c>
+      <c r="I38" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>